--- a/hrs04-offset.xlsx
+++ b/hrs04-offset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datng\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datng\OneDrive\pPlayground\arduino\project\unlRobotic2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98951C85-6044-4173-BF53-BDB40112101A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{98951C85-6044-4173-BF53-BDB40112101A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{60348A2E-964F-40D1-9237-356C8992C4D9}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9432" xr2:uid="{F7E07B8A-C05F-462F-9078-5E0C3A4DA381}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t xml:space="preserve">actual </t>
   </si>
@@ -85,6 +85,18 @@
   <si>
     <t xml:space="preserve">bias = 0 </t>
   </si>
+  <si>
+    <t>sonar</t>
+  </si>
+  <si>
+    <t>after model3 usage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testset </t>
+  </si>
+  <si>
+    <t xml:space="preserve">use model4 </t>
+  </si>
 </sst>
 </file>
 
@@ -137,11 +149,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1913,6 +1928,420 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>after using model 3 offset(modeel4)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.22730402449693787"/>
+                  <c:y val="2.8474044911052786E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$25:$M$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$25:$L$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7D24-4782-922C-5AC72F4FE5B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="645064272"/>
+        <c:axId val="645066568"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="645064272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="645066568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="645066568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="645064272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1993,6 +2422,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3025,20 +3494,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>231914</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>126477</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>491891</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>257093</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>126476</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>579822</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>180264</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3065,16 +4050,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>48039</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>91107</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>612814</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>167307</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>576469</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>19877</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>199950</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>96076</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3094,6 +4079,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>64995</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>62754</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>150159</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>49307</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91E2B8CF-6F40-4C24-A5BD-579128D3C65A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3401,8 +4422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB8796A-C378-4CE1-BCEB-3B040678B991}">
   <dimension ref="A1:O143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3829,7 +4850,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>55</v>
       </c>
@@ -3851,7 +4872,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>57</v>
       </c>
@@ -3873,7 +4894,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>66.7</v>
       </c>
@@ -3895,7 +4916,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>74</v>
       </c>
@@ -3917,7 +4938,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>87</v>
       </c>
@@ -3939,7 +4960,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>91</v>
       </c>
@@ -3961,7 +4982,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>98</v>
       </c>
@@ -3982,8 +5003,15 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="L23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" s="4"/>
+      <c r="O23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>106</v>
       </c>
@@ -4004,8 +5032,17 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="L24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M24" t="s">
+        <v>18</v>
+      </c>
+      <c r="N24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>112</v>
       </c>
@@ -4026,8 +5063,18 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="L25">
+        <v>30</v>
+      </c>
+      <c r="M25">
+        <v>33</v>
+      </c>
+      <c r="N25">
+        <f>M25*1.1538 - 7.6923</f>
+        <v>30.383099999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>122</v>
       </c>
@@ -4048,8 +5095,18 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="L26">
+        <v>31</v>
+      </c>
+      <c r="M26">
+        <v>33</v>
+      </c>
+      <c r="N26">
+        <f t="shared" ref="N26:N31" si="3">M26*1.1538 - 7.6923</f>
+        <v>30.383099999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>129.19999999999999</v>
       </c>
@@ -4070,8 +5127,18 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="L27">
+        <v>32</v>
+      </c>
+      <c r="M27">
+        <v>35</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="3"/>
+        <v>32.690699999999993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>139</v>
       </c>
@@ -4093,7 +5160,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>151</v>
       </c>
@@ -4115,7 +5182,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>176</v>
       </c>
@@ -4137,7 +5204,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="D31">
         <v>29</v>
       </c>
@@ -4153,7 +5220,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="D32">
         <v>30</v>
       </c>
@@ -4967,6 +6034,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L23:M23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
